--- a/Trunk/SleeplessBurritoSlayers_Testing_for_Sinusoidal_BugTracker_Ver2.xlsx
+++ b/Trunk/SleeplessBurritoSlayers_Testing_for_Sinusoidal_BugTracker_Ver2.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="21975" windowHeight="12180"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="11550" windowHeight="5430" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info and definitions" sheetId="1" r:id="rId1"/>
     <sheet name="Bug Tracker (New)" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="build_found">'Team Info and definitions'!$E$5:$E$7</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="175">
   <si>
     <t>Category</t>
   </si>
@@ -467,9 +468,6 @@
     <t>When game ends sometimes the last sound just repeating instead of repeating the "beat" you created.</t>
   </si>
   <si>
-    <t>Win the game while moving the Sequencer.</t>
-  </si>
-  <si>
     <t>Constant Beep, not the sound I created.</t>
   </si>
   <si>
@@ -507,6 +505,54 @@
   </si>
   <si>
     <t>Sinusoidal</t>
+  </si>
+  <si>
+    <t>10|50</t>
+  </si>
+  <si>
+    <t>11|50</t>
+  </si>
+  <si>
+    <t>12|50</t>
+  </si>
+  <si>
+    <t>13|50</t>
+  </si>
+  <si>
+    <t>14|50</t>
+  </si>
+  <si>
+    <t>User options don't save.</t>
+  </si>
+  <si>
+    <t>If you tweak the sound settings in options select save and exit and leave the game the sounds are reset to defaults.</t>
+  </si>
+  <si>
+    <t>Win the game.</t>
+  </si>
+  <si>
+    <t>Keyboard input buggy and conflicts with mouse.</t>
+  </si>
+  <si>
+    <t>Enter Career mode, move up and down with arrow keys. Then move around with mouse highlighting other options. Then stop on the third option and attempt to move with keyboard input again.</t>
+  </si>
+  <si>
+    <t>Arrows key should work.</t>
+  </si>
+  <si>
+    <t>If mouse was way off to the right but on same y position as the menu option then arrow keys did not work.</t>
+  </si>
+  <si>
+    <t>loop players with no "energy" keep the nucleus from dropping in shield.</t>
+  </si>
+  <si>
+    <t>Place two loop players within range of the center point and leave them there until energy runs out. Then watch how when energy runs out shield does not continue depleding as it should.</t>
+  </si>
+  <si>
+    <t>Shield remain constant.</t>
+  </si>
+  <si>
+    <t>Shield should deplete if nothing is charging it.</t>
   </si>
 </sst>
 </file>
@@ -857,7 +903,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -924,13 +970,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -941,6 +984,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1246,7 +1307,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B16" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -1336,7 +1397,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="24"/>
@@ -1392,7 +1453,7 @@
     </row>
     <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -1429,7 +1490,7 @@
     </row>
     <row r="14" spans="1:6" ht="15.75" thickTop="1">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
@@ -1440,7 +1501,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="24"/>
@@ -1451,7 +1512,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="24"/>
@@ -1462,7 +1523,7 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1">
       <c r="A17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -1642,8 +1703,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AR56"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="AO30" sqref="AO30:AR42"/>
+    <sheetView topLeftCell="U25" workbookViewId="0">
+      <selection activeCell="AR43" sqref="AO30:AR43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1668,11 +1729,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
     </row>
     <row r="2" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="16" t="s">
@@ -1946,260 +2007,260 @@
       <c r="X6" s="32"/>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="F7" s="37" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="F7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="K7" s="37" t="s">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="K7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="P7" s="37" t="s">
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="P7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="U7" s="37" t="s">
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="U7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="F8" s="41" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="F8" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="K8" s="41" t="s">
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="K8" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="P8" s="41" t="s">
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="P8" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="U8" s="41" t="s">
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="U8" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="F9" s="42" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="F9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="K9" s="42" t="s">
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="K9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="P9" s="42" t="s">
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="P9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="U9" s="42" t="s">
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="U9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
     </row>
     <row r="10" spans="1:24" ht="50.1" customHeight="1">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="F10" s="41" t="s">
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="F10" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="K10" s="41" t="s">
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="K10" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="P10" s="41" t="s">
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="P10" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="U10" s="41" t="s">
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="U10" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="F11" s="37" t="s">
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="F11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="K11" s="37" t="s">
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="K11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="P11" s="37" t="s">
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="P11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="U11" s="37" t="s">
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="U11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
     </row>
     <row r="12" spans="1:24" ht="50.1" customHeight="1">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="F12" s="41" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="F12" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="K12" s="41" t="s">
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="K12" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="P12" s="41" t="s">
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="P12" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="U12" s="41" t="s">
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="U12" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="F13" s="37" t="s">
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="F13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="K13" s="37" t="s">
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="K13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="P13" s="37" t="s">
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="P13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="U13" s="37" t="s">
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="U13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
     </row>
     <row r="14" spans="1:24" ht="50.1" customHeight="1">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="F14" s="41" t="s">
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="F14" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="K14" s="41" t="s">
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="K14" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="P14" s="41" t="s">
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="P14" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="U14" s="41" t="s">
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="U14" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
     </row>
     <row r="15" spans="1:24" ht="15.75" thickBot="1"/>
     <row r="16" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
@@ -2474,260 +2535,260 @@
       <c r="X20" s="35"/>
     </row>
     <row r="21" spans="1:44">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="F21" s="37" t="s">
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="F21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="K21" s="37" t="s">
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="K21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="P21" s="37" t="s">
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="P21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="U21" s="37" t="s">
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="U21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
     </row>
     <row r="22" spans="1:44">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="F22" s="41" t="s">
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="F22" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="K22" s="41" t="s">
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="K22" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="P22" s="41" t="s">
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="P22" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="U22" s="41" t="s">
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="U22" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
     </row>
     <row r="23" spans="1:44">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="F23" s="42" t="s">
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="F23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="K23" s="42" t="s">
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="K23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="P23" s="42" t="s">
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="P23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="U23" s="42" t="s">
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="U23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="V23" s="42"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="42"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="41"/>
     </row>
     <row r="24" spans="1:44" ht="49.5" customHeight="1">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="F24" s="41" t="s">
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="F24" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="K24" s="41" t="s">
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="K24" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="P24" s="41" t="s">
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="P24" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="U24" s="41" t="s">
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="U24" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
     </row>
     <row r="25" spans="1:44">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="F25" s="37" t="s">
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="F25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="K25" s="37" t="s">
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="K25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="P25" s="37" t="s">
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="P25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
-      <c r="U25" s="37" t="s">
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="U25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="37"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="37"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
     </row>
     <row r="26" spans="1:44" ht="49.5" customHeight="1">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="F26" s="41" t="s">
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="F26" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="K26" s="41" t="s">
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="K26" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="P26" s="41" t="s">
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="P26" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="U26" s="41" t="s">
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="U26" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="V26" s="41"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="41"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
     </row>
     <row r="27" spans="1:44">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="F27" s="37" t="s">
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="F27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="K27" s="37" t="s">
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="K27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="P27" s="37" t="s">
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="P27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="U27" s="37" t="s">
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="U27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="39"/>
     </row>
     <row r="28" spans="1:44" ht="49.5" customHeight="1">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="F28" s="41" t="s">
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="F28" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="K28" s="41" t="s">
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="K28" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="P28" s="41" t="s">
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="P28" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="41"/>
-      <c r="U28" s="41" t="s">
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="U28" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="V28" s="41"/>
-      <c r="W28" s="41"/>
-      <c r="X28" s="41"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="40"/>
     </row>
     <row r="29" spans="1:44" ht="15.75" thickBot="1"/>
     <row r="30" spans="1:44" ht="16.5" thickTop="1" thickBot="1">
@@ -2917,7 +2978,7 @@
     </row>
     <row r="32" spans="1:44">
       <c r="A32" s="18" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="B32" s="35" t="s">
         <v>16</v>
@@ -2929,7 +2990,7 @@
         <v>27</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>17</v>
@@ -2941,7 +3002,7 @@
         <v>23</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="L32" s="35" t="s">
         <v>17</v>
@@ -2953,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="P32" s="18" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="Q32" s="35" t="s">
         <v>16</v>
@@ -2965,7 +3026,7 @@
         <v>24</v>
       </c>
       <c r="U32" s="18" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="V32" s="35" t="s">
         <v>16</v>
@@ -2977,7 +3038,7 @@
         <v>25</v>
       </c>
       <c r="Z32" s="18" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="AA32" s="35" t="s">
         <v>16</v>
@@ -2989,7 +3050,7 @@
         <v>23</v>
       </c>
       <c r="AE32" s="18" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="AF32" s="35" t="s">
         <v>16</v>
@@ -3001,7 +3062,7 @@
         <v>25</v>
       </c>
       <c r="AJ32" s="18" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="AK32" s="35" t="s">
         <v>16</v>
@@ -3013,7 +3074,7 @@
         <v>23</v>
       </c>
       <c r="AO32" s="18" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="AP32" s="35" t="s">
         <v>16</v>
@@ -3210,452 +3271,452 @@
       <c r="AR34" s="35"/>
     </row>
     <row r="35" spans="1:44">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="F35" s="37" t="s">
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="F35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="K35" s="37" t="s">
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="K35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="P35" s="37" t="s">
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="P35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="U35" s="37" t="s">
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="U35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="V35" s="37"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="37"/>
-      <c r="Z35" s="37" t="s">
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39"/>
+      <c r="Z35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AA35" s="37"/>
-      <c r="AB35" s="37"/>
-      <c r="AC35" s="37"/>
-      <c r="AE35" s="37" t="s">
+      <c r="AA35" s="39"/>
+      <c r="AB35" s="39"/>
+      <c r="AC35" s="39"/>
+      <c r="AE35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AF35" s="37"/>
-      <c r="AG35" s="37"/>
-      <c r="AH35" s="37"/>
-      <c r="AJ35" s="37" t="s">
+      <c r="AF35" s="39"/>
+      <c r="AG35" s="39"/>
+      <c r="AH35" s="39"/>
+      <c r="AJ35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AK35" s="37"/>
-      <c r="AL35" s="37"/>
-      <c r="AM35" s="37"/>
-      <c r="AO35" s="37" t="s">
+      <c r="AK35" s="39"/>
+      <c r="AL35" s="39"/>
+      <c r="AM35" s="39"/>
+      <c r="AO35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AP35" s="37"/>
-      <c r="AQ35" s="37"/>
-      <c r="AR35" s="37"/>
+      <c r="AP35" s="39"/>
+      <c r="AQ35" s="39"/>
+      <c r="AR35" s="39"/>
     </row>
     <row r="36" spans="1:44">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="F36" s="41" t="s">
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="F36" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="K36" s="41" t="s">
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="K36" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="P36" s="41" t="s">
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="P36" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
-      <c r="U36" s="41" t="s">
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="40"/>
+      <c r="U36" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="V36" s="41"/>
-      <c r="W36" s="41"/>
-      <c r="X36" s="41"/>
-      <c r="Z36" s="41" t="s">
+      <c r="V36" s="40"/>
+      <c r="W36" s="40"/>
+      <c r="X36" s="40"/>
+      <c r="Z36" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="AA36" s="41"/>
-      <c r="AB36" s="41"/>
-      <c r="AC36" s="41"/>
-      <c r="AE36" s="41" t="s">
+      <c r="AA36" s="40"/>
+      <c r="AB36" s="40"/>
+      <c r="AC36" s="40"/>
+      <c r="AE36" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="AF36" s="41"/>
-      <c r="AG36" s="41"/>
-      <c r="AH36" s="41"/>
-      <c r="AJ36" s="41" t="s">
+      <c r="AF36" s="40"/>
+      <c r="AG36" s="40"/>
+      <c r="AH36" s="40"/>
+      <c r="AJ36" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="AK36" s="41"/>
-      <c r="AL36" s="41"/>
-      <c r="AM36" s="41"/>
-      <c r="AO36" s="41" t="s">
+      <c r="AK36" s="40"/>
+      <c r="AL36" s="40"/>
+      <c r="AM36" s="40"/>
+      <c r="AO36" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="AP36" s="40"/>
+      <c r="AQ36" s="40"/>
+      <c r="AR36" s="40"/>
+    </row>
+    <row r="37" spans="1:44" ht="15" customHeight="1">
+      <c r="A37" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="F37" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="K37" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="P37" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="41"/>
+      <c r="S37" s="41"/>
+      <c r="U37" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="V37" s="41"/>
+      <c r="W37" s="41"/>
+      <c r="X37" s="41"/>
+      <c r="Z37" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA37" s="41"/>
+      <c r="AB37" s="41"/>
+      <c r="AC37" s="41"/>
+      <c r="AE37" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF37" s="41"/>
+      <c r="AG37" s="41"/>
+      <c r="AH37" s="41"/>
+      <c r="AJ37" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK37" s="41"/>
+      <c r="AL37" s="41"/>
+      <c r="AM37" s="41"/>
+      <c r="AO37" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP37" s="41"/>
+      <c r="AQ37" s="41"/>
+      <c r="AR37" s="41"/>
+    </row>
+    <row r="38" spans="1:44" ht="49.5" customHeight="1">
+      <c r="A38" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="F38" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="K38" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="P38" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="40"/>
+      <c r="S38" s="40"/>
+      <c r="U38" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="V38" s="40"/>
+      <c r="W38" s="40"/>
+      <c r="X38" s="40"/>
+      <c r="Z38" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA38" s="40"/>
+      <c r="AB38" s="40"/>
+      <c r="AC38" s="40"/>
+      <c r="AE38" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF38" s="40"/>
+      <c r="AG38" s="40"/>
+      <c r="AH38" s="40"/>
+      <c r="AJ38" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="AK38" s="40"/>
+      <c r="AL38" s="40"/>
+      <c r="AM38" s="40"/>
+      <c r="AO38" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="AP36" s="41"/>
-      <c r="AQ36" s="41"/>
-      <c r="AR36" s="41"/>
-    </row>
-    <row r="37" spans="1:44" ht="15" customHeight="1">
-      <c r="A37" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="F37" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="K37" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="P37" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q37" s="42"/>
-      <c r="R37" s="42"/>
-      <c r="S37" s="42"/>
-      <c r="U37" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="V37" s="42"/>
-      <c r="W37" s="42"/>
-      <c r="X37" s="42"/>
-      <c r="Z37" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA37" s="42"/>
-      <c r="AB37" s="42"/>
-      <c r="AC37" s="42"/>
-      <c r="AE37" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF37" s="42"/>
-      <c r="AG37" s="42"/>
-      <c r="AH37" s="42"/>
-      <c r="AJ37" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK37" s="42"/>
-      <c r="AL37" s="42"/>
-      <c r="AM37" s="42"/>
-      <c r="AO37" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP37" s="42"/>
-      <c r="AQ37" s="42"/>
-      <c r="AR37" s="42"/>
-    </row>
-    <row r="38" spans="1:44" ht="49.5" customHeight="1">
-      <c r="A38" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="F38" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="K38" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-      <c r="P38" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="41"/>
-      <c r="U38" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="V38" s="41"/>
-      <c r="W38" s="41"/>
-      <c r="X38" s="41"/>
-      <c r="Z38" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA38" s="41"/>
-      <c r="AB38" s="41"/>
-      <c r="AC38" s="41"/>
-      <c r="AE38" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF38" s="41"/>
-      <c r="AG38" s="41"/>
-      <c r="AH38" s="41"/>
-      <c r="AJ38" s="41" t="s">
+      <c r="AP38" s="40"/>
+      <c r="AQ38" s="40"/>
+      <c r="AR38" s="40"/>
+    </row>
+    <row r="39" spans="1:44">
+      <c r="A39" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="F39" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="K39" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39"/>
+      <c r="P39" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q39" s="39"/>
+      <c r="R39" s="39"/>
+      <c r="S39" s="39"/>
+      <c r="U39" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="V39" s="39"/>
+      <c r="W39" s="39"/>
+      <c r="X39" s="39"/>
+      <c r="Z39" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA39" s="39"/>
+      <c r="AB39" s="39"/>
+      <c r="AC39" s="39"/>
+      <c r="AE39" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF39" s="39"/>
+      <c r="AG39" s="39"/>
+      <c r="AH39" s="39"/>
+      <c r="AJ39" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK39" s="39"/>
+      <c r="AL39" s="39"/>
+      <c r="AM39" s="39"/>
+      <c r="AO39" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP39" s="39"/>
+      <c r="AQ39" s="39"/>
+      <c r="AR39" s="39"/>
+    </row>
+    <row r="40" spans="1:44" ht="47.25" customHeight="1">
+      <c r="A40" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="45"/>
+      <c r="F40" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="45"/>
+      <c r="K40" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="45"/>
+      <c r="P40" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q40" s="44"/>
+      <c r="R40" s="44"/>
+      <c r="S40" s="45"/>
+      <c r="U40" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="V40" s="44"/>
+      <c r="W40" s="44"/>
+      <c r="X40" s="45"/>
+      <c r="Z40" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA40" s="44"/>
+      <c r="AB40" s="44"/>
+      <c r="AC40" s="45"/>
+      <c r="AE40" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF40" s="44"/>
+      <c r="AG40" s="44"/>
+      <c r="AH40" s="45"/>
+      <c r="AJ40" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="AK38" s="41"/>
-      <c r="AL38" s="41"/>
-      <c r="AM38" s="41"/>
-      <c r="AO38" s="41" t="s">
+      <c r="AK40" s="44"/>
+      <c r="AL40" s="44"/>
+      <c r="AM40" s="45"/>
+      <c r="AO40" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="AP38" s="41"/>
-      <c r="AQ38" s="41"/>
-      <c r="AR38" s="41"/>
-    </row>
-    <row r="39" spans="1:44">
-      <c r="A39" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="F39" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="K39" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="P39" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
-      <c r="S39" s="37"/>
-      <c r="U39" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="V39" s="37"/>
-      <c r="W39" s="37"/>
-      <c r="X39" s="37"/>
-      <c r="Z39" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA39" s="37"/>
-      <c r="AB39" s="37"/>
-      <c r="AC39" s="37"/>
-      <c r="AE39" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF39" s="37"/>
-      <c r="AG39" s="37"/>
-      <c r="AH39" s="37"/>
-      <c r="AJ39" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK39" s="37"/>
-      <c r="AL39" s="37"/>
-      <c r="AM39" s="37"/>
-      <c r="AO39" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="AP39" s="37"/>
-      <c r="AQ39" s="37"/>
-      <c r="AR39" s="37"/>
-    </row>
-    <row r="40" spans="1:44" ht="47.25" customHeight="1">
-      <c r="A40" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="40"/>
-      <c r="F40" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="40"/>
-      <c r="K40" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="40"/>
-      <c r="P40" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q40" s="39"/>
-      <c r="R40" s="39"/>
-      <c r="S40" s="40"/>
-      <c r="U40" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="V40" s="39"/>
-      <c r="W40" s="39"/>
-      <c r="X40" s="40"/>
-      <c r="Z40" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA40" s="39"/>
-      <c r="AB40" s="39"/>
-      <c r="AC40" s="40"/>
-      <c r="AE40" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF40" s="39"/>
-      <c r="AG40" s="39"/>
-      <c r="AH40" s="40"/>
-      <c r="AJ40" s="38" t="s">
+      <c r="AP40" s="44"/>
+      <c r="AQ40" s="44"/>
+      <c r="AR40" s="45"/>
+    </row>
+    <row r="41" spans="1:44">
+      <c r="A41" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="F41" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="K41" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="P41" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="39"/>
+      <c r="S41" s="39"/>
+      <c r="U41" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="V41" s="39"/>
+      <c r="W41" s="39"/>
+      <c r="X41" s="39"/>
+      <c r="Z41" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA41" s="39"/>
+      <c r="AB41" s="39"/>
+      <c r="AC41" s="39"/>
+      <c r="AE41" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF41" s="39"/>
+      <c r="AG41" s="39"/>
+      <c r="AH41" s="39"/>
+      <c r="AJ41" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK41" s="39"/>
+      <c r="AL41" s="39"/>
+      <c r="AM41" s="39"/>
+      <c r="AO41" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP41" s="39"/>
+      <c r="AQ41" s="39"/>
+      <c r="AR41" s="39"/>
+    </row>
+    <row r="42" spans="1:44" ht="49.5" customHeight="1">
+      <c r="A42" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="F42" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="K42" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="P42" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="40"/>
+      <c r="S42" s="40"/>
+      <c r="U42" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="V42" s="40"/>
+      <c r="W42" s="40"/>
+      <c r="X42" s="40"/>
+      <c r="Z42" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA42" s="40"/>
+      <c r="AB42" s="40"/>
+      <c r="AC42" s="40"/>
+      <c r="AE42" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF42" s="40"/>
+      <c r="AG42" s="40"/>
+      <c r="AH42" s="40"/>
+      <c r="AJ42" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="AK40" s="39"/>
-      <c r="AL40" s="39"/>
-      <c r="AM40" s="40"/>
-      <c r="AO40" s="38" t="s">
+      <c r="AK42" s="40"/>
+      <c r="AL42" s="40"/>
+      <c r="AM42" s="40"/>
+      <c r="AO42" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="AP40" s="39"/>
-      <c r="AQ40" s="39"/>
-      <c r="AR40" s="40"/>
-    </row>
-    <row r="41" spans="1:44">
-      <c r="A41" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="F41" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="K41" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="P41" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
-      <c r="S41" s="37"/>
-      <c r="U41" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="V41" s="37"/>
-      <c r="W41" s="37"/>
-      <c r="X41" s="37"/>
-      <c r="Z41" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA41" s="37"/>
-      <c r="AB41" s="37"/>
-      <c r="AC41" s="37"/>
-      <c r="AE41" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF41" s="37"/>
-      <c r="AG41" s="37"/>
-      <c r="AH41" s="37"/>
-      <c r="AJ41" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK41" s="37"/>
-      <c r="AL41" s="37"/>
-      <c r="AM41" s="37"/>
-      <c r="AO41" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP41" s="37"/>
-      <c r="AQ41" s="37"/>
-      <c r="AR41" s="37"/>
-    </row>
-    <row r="42" spans="1:44" ht="49.5" customHeight="1">
-      <c r="A42" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="F42" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="K42" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="L42" s="41"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41"/>
-      <c r="P42" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="41"/>
-      <c r="S42" s="41"/>
-      <c r="U42" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="V42" s="41"/>
-      <c r="W42" s="41"/>
-      <c r="X42" s="41"/>
-      <c r="Z42" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA42" s="41"/>
-      <c r="AB42" s="41"/>
-      <c r="AC42" s="41"/>
-      <c r="AE42" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF42" s="41"/>
-      <c r="AG42" s="41"/>
-      <c r="AH42" s="41"/>
-      <c r="AJ42" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="AK42" s="41"/>
-      <c r="AL42" s="41"/>
-      <c r="AM42" s="41"/>
-      <c r="AO42" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP42" s="41"/>
-      <c r="AQ42" s="41"/>
-      <c r="AR42" s="41"/>
+      <c r="AP42" s="40"/>
+      <c r="AQ42" s="40"/>
+      <c r="AR42" s="40"/>
     </row>
     <row r="43" spans="1:44" ht="15.75" thickBot="1"/>
     <row r="44" spans="1:44" ht="16.5" thickTop="1" thickBot="1">
@@ -3670,60 +3731,81 @@
     <row r="56" ht="49.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="153">
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="AO39:AR39"/>
+    <mergeCell ref="AO40:AR40"/>
+    <mergeCell ref="AO41:AR41"/>
+    <mergeCell ref="AO42:AR42"/>
+    <mergeCell ref="AO35:AR35"/>
+    <mergeCell ref="AO36:AR36"/>
+    <mergeCell ref="AO37:AR37"/>
+    <mergeCell ref="AO38:AR38"/>
+    <mergeCell ref="AE40:AH40"/>
+    <mergeCell ref="AE41:AH41"/>
+    <mergeCell ref="AE42:AH42"/>
+    <mergeCell ref="AJ35:AM35"/>
+    <mergeCell ref="AJ36:AM36"/>
+    <mergeCell ref="AJ37:AM37"/>
+    <mergeCell ref="AJ38:AM38"/>
+    <mergeCell ref="AJ39:AM39"/>
+    <mergeCell ref="AJ40:AM40"/>
+    <mergeCell ref="AJ41:AM41"/>
+    <mergeCell ref="AJ42:AM42"/>
+    <mergeCell ref="AE35:AH35"/>
+    <mergeCell ref="AE36:AH36"/>
+    <mergeCell ref="AE37:AH37"/>
+    <mergeCell ref="AE38:AH38"/>
+    <mergeCell ref="AE39:AH39"/>
+    <mergeCell ref="U42:X42"/>
+    <mergeCell ref="Z35:AC35"/>
+    <mergeCell ref="Z36:AC36"/>
+    <mergeCell ref="Z37:AC37"/>
+    <mergeCell ref="Z38:AC38"/>
+    <mergeCell ref="Z39:AC39"/>
+    <mergeCell ref="Z40:AC40"/>
+    <mergeCell ref="Z41:AC41"/>
+    <mergeCell ref="Z42:AC42"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="U39:X39"/>
+    <mergeCell ref="U40:X40"/>
+    <mergeCell ref="U41:X41"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="P38:S38"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
     <mergeCell ref="U21:X21"/>
     <mergeCell ref="U22:X22"/>
     <mergeCell ref="U23:X23"/>
@@ -3748,81 +3830,60 @@
     <mergeCell ref="U26:X26"/>
     <mergeCell ref="U27:X27"/>
     <mergeCell ref="U28:X28"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="P38:S38"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="P41:S41"/>
-    <mergeCell ref="P42:S42"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="U42:X42"/>
-    <mergeCell ref="Z35:AC35"/>
-    <mergeCell ref="Z36:AC36"/>
-    <mergeCell ref="Z37:AC37"/>
-    <mergeCell ref="Z38:AC38"/>
-    <mergeCell ref="Z39:AC39"/>
-    <mergeCell ref="Z40:AC40"/>
-    <mergeCell ref="Z41:AC41"/>
-    <mergeCell ref="Z42:AC42"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="U39:X39"/>
-    <mergeCell ref="U40:X40"/>
-    <mergeCell ref="U41:X41"/>
-    <mergeCell ref="AO39:AR39"/>
-    <mergeCell ref="AO40:AR40"/>
-    <mergeCell ref="AO41:AR41"/>
-    <mergeCell ref="AO42:AR42"/>
-    <mergeCell ref="AO35:AR35"/>
-    <mergeCell ref="AO36:AR36"/>
-    <mergeCell ref="AO37:AR37"/>
-    <mergeCell ref="AO38:AR38"/>
-    <mergeCell ref="AE40:AH40"/>
-    <mergeCell ref="AE41:AH41"/>
-    <mergeCell ref="AE42:AH42"/>
-    <mergeCell ref="AJ35:AM35"/>
-    <mergeCell ref="AJ36:AM36"/>
-    <mergeCell ref="AJ37:AM37"/>
-    <mergeCell ref="AJ38:AM38"/>
-    <mergeCell ref="AJ39:AM39"/>
-    <mergeCell ref="AJ40:AM40"/>
-    <mergeCell ref="AJ41:AM41"/>
-    <mergeCell ref="AJ42:AM42"/>
-    <mergeCell ref="AE35:AH35"/>
-    <mergeCell ref="AE36:AH36"/>
-    <mergeCell ref="AE37:AH37"/>
-    <mergeCell ref="AE38:AH38"/>
-    <mergeCell ref="AE39:AH39"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="U11:X11"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V4 L4 B4 G4 Q4 B18 G18 L18 Q18 V18 B32 G32 L32 Q32 V32 AA32 AF32 AK32 AP32">
@@ -3846,4 +3907,964 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AG14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="85.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="72.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="44.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" customWidth="1"/>
+    <col min="17" max="17" width="41.85546875" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" customWidth="1"/>
+    <col min="21" max="21" width="27.7109375" customWidth="1"/>
+    <col min="23" max="23" width="12" customWidth="1"/>
+    <col min="25" max="25" width="58" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" customWidth="1"/>
+    <col min="29" max="29" width="42.42578125" customWidth="1"/>
+    <col min="31" max="31" width="12.28515625" customWidth="1"/>
+    <col min="33" max="33" width="37.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="S1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+    </row>
+    <row r="2" spans="1:33" ht="15.75" thickTop="1">
+      <c r="A2" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="46"/>
+      <c r="N2" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA2" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE2" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="47"/>
+      <c r="N3" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="S3" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="W3" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="X3" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z3" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA3" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB3" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC3" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD3" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE3" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF3" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG3" s="38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="37"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="W4" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="X4" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB4" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE4" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF4" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG4" s="37"/>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="34">
+        <v>40750</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="34">
+        <v>40747</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="34">
+        <v>40747</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="38"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="34">
+        <v>40747</v>
+      </c>
+      <c r="P5" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" s="34">
+        <v>40747</v>
+      </c>
+      <c r="T5" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="W5" s="34">
+        <v>40747</v>
+      </c>
+      <c r="X5" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA5" s="34">
+        <v>40747</v>
+      </c>
+      <c r="AB5" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE5" s="34">
+        <v>40747</v>
+      </c>
+      <c r="AF5" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG5" s="38"/>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="39"/>
+      <c r="AG6" s="39"/>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE7" s="40"/>
+      <c r="AF7" s="40"/>
+      <c r="AG7" s="40"/>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA8" s="41"/>
+      <c r="AB8" s="41"/>
+      <c r="AC8" s="41"/>
+      <c r="AD8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE8" s="41"/>
+      <c r="AF8" s="41"/>
+      <c r="AG8" s="41"/>
+    </row>
+    <row r="9" spans="1:33" ht="83.25" customHeight="1">
+      <c r="A9" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
+      <c r="AG9" s="40"/>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="39"/>
+      <c r="AG10" s="39"/>
+    </row>
+    <row r="11" spans="1:33" ht="64.5" customHeight="1">
+      <c r="A11" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="44"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE11" s="44"/>
+      <c r="AF11" s="44"/>
+      <c r="AG11" s="45"/>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE12" s="39"/>
+      <c r="AF12" s="39"/>
+      <c r="AG12" s="39"/>
+    </row>
+    <row r="13" spans="1:33" ht="71.25" customHeight="1">
+      <c r="A13" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE13" s="40"/>
+      <c r="AF13" s="40"/>
+      <c r="AG13" s="40"/>
+    </row>
+    <row r="14" spans="1:33" ht="21.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="64">
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="Z13:AC13"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="Z11:AC11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 F1 J1 O1 S1 W1 AA1 AE1">
+      <formula1>tester_team</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 G5 K5 P5 T5 X5 AB5 AF5">
+      <formula1>build_found</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5 E5 I5 N5 R5 V5 Z5 AD5">
+      <formula1>status</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 H3 L3:M3 Q3 U3 Y3 AC3 AG3">
+      <formula1>component</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 G3 K3 P3 T3 X3 AB3 AF3">
+      <formula1>category</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 F3 J3 O3 S3 W3 AA3 AE3">
+      <formula1>severity</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>